--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H2">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I2">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J2">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>0.2043410699777778</v>
+        <v>0.166404915664</v>
       </c>
       <c r="R2">
-        <v>1.8390696298</v>
+        <v>1.497644240976</v>
       </c>
       <c r="S2">
-        <v>0.0005233353744513634</v>
+        <v>0.0004303675474486344</v>
       </c>
       <c r="T2">
-        <v>0.0006077455038790556</v>
+        <v>0.0004579860917440852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H3">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I3">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J3">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
-        <v>1.061366428020889</v>
+        <v>1.022895902351555</v>
       </c>
       <c r="R3">
-        <v>9.552297852187998</v>
+        <v>9.206063121163998</v>
       </c>
       <c r="S3">
-        <v>0.002718252366491099</v>
+        <v>0.002645481950059569</v>
       </c>
       <c r="T3">
-        <v>0.003156686390396297</v>
+        <v>0.002815253952743521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H4">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I4">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J4">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>0.8053033500951112</v>
+        <v>1.000695311049778</v>
       </c>
       <c r="R4">
-        <v>7.247730150856</v>
+        <v>9.006257799447999</v>
       </c>
       <c r="S4">
-        <v>0.002062452400365696</v>
+        <v>0.002588065292670988</v>
       </c>
       <c r="T4">
-        <v>0.002395110734872189</v>
+        <v>0.002754152620465339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H5">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I5">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J5">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>1.270742953670666</v>
+        <v>0.6142659629686666</v>
       </c>
       <c r="R5">
-        <v>7.624457722023999</v>
+        <v>3.685595777812</v>
       </c>
       <c r="S5">
-        <v>0.003254483983875545</v>
+        <v>0.001588655809289835</v>
       </c>
       <c r="T5">
-        <v>0.002519605470609589</v>
+        <v>0.00112707114269581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1664173333333333</v>
+        <v>0.1603853333333333</v>
       </c>
       <c r="H6">
-        <v>0.499252</v>
+        <v>0.481156</v>
       </c>
       <c r="I6">
-        <v>0.009928329481286188</v>
+        <v>0.01032935781992836</v>
       </c>
       <c r="J6">
-        <v>0.01026989293949489</v>
+        <v>0.01042870175281933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>0.5348529944506667</v>
+        <v>1.189663395792445</v>
       </c>
       <c r="R6">
-        <v>4.813676950056</v>
+        <v>10.706970562132</v>
       </c>
       <c r="S6">
-        <v>0.001369805356102485</v>
+        <v>0.003076787220459334</v>
       </c>
       <c r="T6">
-        <v>0.001590744839737758</v>
+        <v>0.003274237945170577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I7">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J7">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N7">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O7">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P7">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q7">
-        <v>18.32372099228889</v>
+        <v>15.483105253136</v>
       </c>
       <c r="R7">
-        <v>164.9134889306</v>
+        <v>139.347947278224</v>
       </c>
       <c r="S7">
-        <v>0.04692865407763927</v>
+        <v>0.04004344467885675</v>
       </c>
       <c r="T7">
-        <v>0.05449789926522799</v>
+        <v>0.04261320547323319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I8">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J8">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P8">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q8">
         <v>95.17510258584842</v>
@@ -948,10 +948,10 @@
         <v>856.5759232726357</v>
       </c>
       <c r="S8">
-        <v>0.2437517722483718</v>
+        <v>0.2461482301445324</v>
       </c>
       <c r="T8">
-        <v>0.2830671322415393</v>
+        <v>0.2619446251975422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I9">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J9">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N9">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O9">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P9">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q9">
-        <v>72.21335340420356</v>
+        <v>93.10945392135021</v>
       </c>
       <c r="R9">
-        <v>649.920180637832</v>
+        <v>837.9850852921519</v>
       </c>
       <c r="S9">
-        <v>0.184944721823603</v>
+        <v>0.2408059111025537</v>
       </c>
       <c r="T9">
-        <v>0.2147749390575608</v>
+        <v>0.2562594664689375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I10">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J10">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N10">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O10">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P10">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q10">
-        <v>113.9503641559213</v>
+        <v>57.15422840793133</v>
       </c>
       <c r="R10">
-        <v>683.7021849355278</v>
+        <v>342.925370447588</v>
       </c>
       <c r="S10">
-        <v>0.2918368612873249</v>
+        <v>0.1478160967065822</v>
       </c>
       <c r="T10">
-        <v>0.2259386605889639</v>
+        <v>0.1048680627041521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>44.76904399999999</v>
       </c>
       <c r="I11">
-        <v>0.8902955208876449</v>
+        <v>0.9610926076617912</v>
       </c>
       <c r="J11">
-        <v>0.920924280490686</v>
+        <v>0.9703360399430661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N11">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O11">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P11">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q11">
-        <v>47.96146483558133</v>
+        <v>110.6919438008076</v>
       </c>
       <c r="R11">
-        <v>431.6531835202319</v>
+        <v>996.2274942072679</v>
       </c>
       <c r="S11">
-        <v>0.1228335114507058</v>
+        <v>0.2862789250292662</v>
       </c>
       <c r="T11">
-        <v>0.142645649337394</v>
+        <v>0.304650680099201</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H12">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I12">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J12">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N12">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O12">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P12">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q12">
-        <v>2.053554448641667</v>
+        <v>0.46038926202</v>
       </c>
       <c r="R12">
-        <v>12.32132669185</v>
+        <v>2.76233557212</v>
       </c>
       <c r="S12">
-        <v>0.005259332773646648</v>
+        <v>0.001190689570537122</v>
       </c>
       <c r="T12">
-        <v>0.004071749528924137</v>
+        <v>0.0008447341752781289</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H13">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I13">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J13">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P13">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q13">
-        <v>10.66635185055183</v>
+        <v>2.830026310988333</v>
       </c>
       <c r="R13">
-        <v>63.99811110331099</v>
+        <v>16.98015786593</v>
       </c>
       <c r="S13">
-        <v>0.02731746114643321</v>
+        <v>0.007319203749571963</v>
       </c>
       <c r="T13">
-        <v>0.02114904386954578</v>
+        <v>0.005192605777422069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H14">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I14">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J14">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N14">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O14">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P14">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q14">
-        <v>8.093009776613668</v>
+        <v>2.768604364376666</v>
       </c>
       <c r="R14">
-        <v>48.558058659682</v>
+        <v>16.61162618626</v>
       </c>
       <c r="S14">
-        <v>0.02072690674636898</v>
+        <v>0.007160350193970525</v>
       </c>
       <c r="T14">
-        <v>0.01604666911427737</v>
+        <v>0.005079907194515656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H15">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I15">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J15">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N15">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O15">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P15">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q15">
-        <v>12.7705108222945</v>
+        <v>1.6994777602975</v>
       </c>
       <c r="R15">
-        <v>51.082043289178</v>
+        <v>6.79791104119</v>
       </c>
       <c r="S15">
-        <v>0.0327063965352021</v>
+        <v>0.004395303304137692</v>
       </c>
       <c r="T15">
-        <v>0.01688075406983332</v>
+        <v>0.002078830622517958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.6724345</v>
+        <v>0.443735</v>
       </c>
       <c r="H16">
-        <v>3.344869</v>
+        <v>0.88747</v>
       </c>
       <c r="I16">
-        <v>0.09977614963106883</v>
+        <v>0.02857803451828042</v>
       </c>
       <c r="J16">
-        <v>0.06880582656981911</v>
+        <v>0.01923525830411462</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N16">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O16">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P16">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q16">
-        <v>5.375080722847001</v>
+        <v>3.291418709931667</v>
       </c>
       <c r="R16">
-        <v>32.250484337082</v>
+        <v>19.74851225959</v>
       </c>
       <c r="S16">
-        <v>0.01376605242941789</v>
+        <v>0.008512487700063113</v>
       </c>
       <c r="T16">
-        <v>0.0106576099872385</v>
+        <v>0.006039180534380809</v>
       </c>
     </row>
   </sheetData>
